--- a/input/Financial Statement GPS/Balance Statements All-GPS.xlsx
+++ b/input/Financial Statement GPS/Balance Statements All-GPS.xlsx
@@ -7,27 +7,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Year Ended 2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Q2 2018 (2017)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Q3 2018 (2017)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Year Ended 2018" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Q1 2019 (2018)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Q2 2019 (2018)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Q3 2019 (2018)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Year Ended 2019" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Q1 2020 (2019)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Q2 2020 (2019)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Q3 2020 (2019)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Year Ended 2020" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Q1 2021 (2020)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Q2 2021 (2020)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Q3 2021 (2020)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Year Ended 2021" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Q1 2022 (2021)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Q2 2022 (2021)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Q3 2022 (2021)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Year Ended 2022" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Q1 2023 (2022)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Year Ended 2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q1 2017 (2016)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Q2 2017 (2016)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Q3 2017 (2016)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Year Ended 2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q1 2018 (2017)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Q2 2018 (2017)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q3 2018 (2017)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Year Ended 2018" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q1 2019 (2018)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Q2 2019 (2018)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Q3 2019 (2018)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Year Ended 2019" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Q1 2020 (2019)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Q2 2020 (2019)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Q3 2020 (2019)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Year Ended 2020" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Q1 2021 (2020)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Q2 2021 (2020)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Q3 2021 (2020)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Year Ended 2021" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Q1 2022 (2021)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Q2 2022 (2021)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Q3 2022 (2021)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Year Ended 2022" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +465,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 28, 2017</t>
+          <t>Jan. 31, 2015</t>
         </is>
       </c>
     </row>
@@ -480,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1783</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +494,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1830</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="5">
@@ -500,7 +504,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>702</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +514,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4315</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +524,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2616</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="8">
@@ -530,7 +534,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>679</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -540,7 +544,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7610</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="10">
@@ -558,7 +562,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +572,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1243</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +582,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14">
@@ -588,7 +592,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -598,7 +602,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2453</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +620,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1248</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1005</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="19">
@@ -636,7 +640,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2253</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="20">
@@ -650,61 +654,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 399 and 397 shares</t>
+          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 397 and 421 shares</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2749</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Accumulated other comprehensive income</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Total stockholders' equity</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>7610</v>
+        <v>7690</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,7 +728,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aug. 03, 2019</t>
+          <t>May 05, 2018</t>
         </is>
       </c>
     </row>
@@ -753,7 +747,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1177</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="4">
@@ -763,7 +757,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -773,7 +767,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2326</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="6">
@@ -783,7 +777,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7">
@@ -793,56 +787,56 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4567</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,926, $5,755, and $6,063</t>
+          <t>Property and equipment, net of accumulated depreciation of $6,041, $5,813, and $5,900</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3141</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Operating Lease, Right-of-Use Asset</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5807</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14043</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -851,7 +845,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1246</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="14">
@@ -861,165 +855,145 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>908</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>946</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
+          <t>Total current liabilities</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3134</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Total long-term debt</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1249</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Total long-term liabilities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>391</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5644</v>
+          <t>Commitments and contingencies (see Note 11)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>7284</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 12)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 389, 399, and 399 shares</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 376, 378, and 385 shares</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3551</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>14043</v>
+        <v>7585</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,7 +1023,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nov. 02, 2019</t>
+          <t>Aug. 04, 2018</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1042,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>788</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="4">
@@ -1078,7 +1052,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
@@ -1088,7 +1062,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2720</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="6">
@@ -1098,7 +1072,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>770</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7">
@@ -1108,233 +1082,203 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4572</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,999, $5,755, and $6,112</t>
+          <t>Property and equipment, net of accumulated depreciation of $6,063, $5,962, and $6,002</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3225</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Operating Lease, Right-of-Use Asset</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5796</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>525</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14118</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1297</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1241</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>974</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Total current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>934</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>43</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3192</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1080</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total long-term liabilities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1249</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>393</v>
+          <t>Commitments and contingencies (see Note 11)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5650</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 385, 389, and 392 shares</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7292</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 12)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3268</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 373, 378, and 382 shares</t>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>14118</v>
+        <v>8010</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,7 +1308,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 01, 2020</t>
+          <t>Nov. 03, 2018</t>
         </is>
       </c>
     </row>
@@ -1383,17 +1327,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1364</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Short-term Investments</t>
+          <t>Available-for-sale Securities, Current</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -1403,7 +1347,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2156</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="6">
@@ -1413,7 +1357,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7">
@@ -1423,221 +1367,203 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4516</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,839 and $5,755</t>
+          <t>Property and equipment, net of accumulated depreciation of $6,063, $5,962, and $6,002</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3122</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Operating Lease, Right-of-Use Asset</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5402</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13679</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1299</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1174</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1067</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Total current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>48</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3209</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1091</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Long-term debt</t>
+          <t>Total long-term liabilities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1249</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5508</v>
+          <t>Commitments and contingencies (see Note 11)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>397</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 385, 389, and 392 shares</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 371 and 378 shares</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3257</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Accumulated other comprehensive income</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>13679</v>
+        <v>8173</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1667,7 +1593,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>May 02, 2020</t>
+          <t>Feb. 03, 2018</t>
         </is>
       </c>
     </row>
@@ -1686,17 +1612,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1028</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Available-for-sale Securities, Current</t>
+          <t>Short-term Investments</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1706,7 +1632,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2217</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="6">
@@ -1716,7 +1642,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>920</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7">
@@ -1726,243 +1652,191 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4216</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,886, $5,839, and $5,871</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,755 and $5,962</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2945</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Operating Lease, Right-of-Use Asset</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4851</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12710</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1181</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Current maturities of debt</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>971</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Total current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1051</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>886</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
+          <t>Long-term debt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3431</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2384</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1250</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 389 and 399 shares</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>381</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
+          <t>Additional Paid in Capital</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5331</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6962</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 9)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3144</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 373, 371, and 378 shares</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Additional Paid in Capital</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Retained earnings</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>12710</v>
+        <v>7989</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +1866,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aug. 01, 2020</t>
+          <t>May 04, 2019</t>
         </is>
       </c>
     </row>
@@ -2011,7 +1885,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2188</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4">
@@ -2021,7 +1895,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
@@ -2041,7 +1915,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>882</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7">
@@ -2051,17 +1925,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5337</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,933, $5,839, and $5,926</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,871, $5,755, and $6,025</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2895</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="9">
@@ -2071,7 +1945,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4689</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="10">
@@ -2081,7 +1955,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11">
@@ -2091,7 +1965,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13716</v>
+        <v>13620</v>
       </c>
     </row>
     <row r="12">
@@ -2109,7 +1983,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1629</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14">
@@ -2119,7 +1993,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1124</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15">
@@ -2129,7 +2003,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>856</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16">
@@ -2139,7 +2013,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2149,7 +2023,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3649</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="18">
@@ -2167,7 +2041,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2212</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="20">
@@ -2177,7 +2051,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>423</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21">
@@ -2187,7 +2061,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5179</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="22">
@@ -2197,13 +2071,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7814</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 9)</t>
+          <t>Commitments and contingencies (see Note 11)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2223,7 +2097,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 374, 371, and 376 shares</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 378, 378, and 387 shares</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2237,7 +2111,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2247,7 +2121,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2173</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="28">
@@ -2257,7 +2131,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2267,7 +2141,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2253</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="30">
@@ -2277,7 +2151,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13716</v>
+        <v>13620</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2307,7 +2181,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 31, 2020</t>
+          <t>Aug. 03, 2019</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2200,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2471</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4">
@@ -2336,7 +2210,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -2346,7 +2220,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2747</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="6">
@@ -2356,7 +2230,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7">
@@ -2366,17 +2240,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6362</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,891, $5,839, and $5,999</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,926, $5,755, and $6,063</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2846</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="9">
@@ -2386,7 +2260,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4460</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="10">
@@ -2396,7 +2270,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>705</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
@@ -2406,7 +2280,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14373</v>
+        <v>14043</v>
       </c>
     </row>
     <row r="12">
@@ -2424,7 +2298,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2284</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="14">
@@ -2434,7 +2308,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1283</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15">
@@ -2444,7 +2318,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>823</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16">
@@ -2454,7 +2328,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2464,7 +2338,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4431</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="18">
@@ -2482,7 +2356,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2214</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="20">
@@ -2492,7 +2366,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>458</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21">
@@ -2502,7 +2376,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4899</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="22">
@@ -2512,13 +2386,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7571</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 9)</t>
+          <t>Commitments and contingencies (see Note 12)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2530,119 +2404,69 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Common stock, shares outstanding (in shares)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>374000</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 376, 378, and 385 shares</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 371, 371, and 373 shares</t>
+          <t>Additional Paid in Capital</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2268</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total stockholders' equity</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>14373</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Property and equipment, accumulated depreciation</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5891</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Common stock, shares issued (in shares)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>374000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Common stock, shares authorized (in shares)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Common stock, par value (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>50000</v>
+        <v>14043</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2672,7 +2496,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 30, 2021</t>
+          <t>Nov. 02, 2019</t>
         </is>
       </c>
     </row>
@@ -2687,21 +2511,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cash and Cash Equivalents, at Carrying Value</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1988</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Short-term Investments</t>
+          <t>Available-for-sale Securities, Current</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -2711,17 +2535,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2451</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other Assets, Current</t>
+          <t>Other current assets</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7">
@@ -2731,133 +2555,133 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6008</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation, Depletion and Amortization, Property, Plant, and Equipment</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,999, $5,755, and $6,112</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5608</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation</t>
+          <t>Operating Lease, Right-of-Use Asset</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2841</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Operating Lease, Right-of-Use Asset</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4217</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>703</v>
+        <v>14118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13769</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1241</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1743</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accrued Liabilities, Current</t>
+          <t>Operating Lease, Liability, Current</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1276</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
+          <t>Total current liabilities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3884</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Total long-term debt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Long-term debt</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2216</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21">
@@ -2867,27 +2691,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4617</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Other long-term liabilities</t>
+          <t>Total long-term liabilities</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>7271</v>
+          <t>Commitments and contingencies (see Note 12)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2901,7 +2727,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 371 and 378 shares</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 373, 378, and 382 shares</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2915,7 +2741,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2925,17 +2751,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2501</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Accumulated other comprehensive income</t>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -2945,7 +2771,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2614</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="30">
@@ -2955,47 +2781,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13769</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Common stock, par value (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Common stock, shares outstanding (in shares)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>374000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Common stock, shares issued (in shares)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>374000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Common stock, shares authorized (in shares)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2300000</v>
+        <v>14118</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +2795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,7 +2811,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>May 01, 2021</t>
+          <t>Feb. 02, 2019</t>
         </is>
       </c>
     </row>
@@ -3044,17 +2830,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2066</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Available-for-sale Securities, Current</t>
+          <t>Short-term Investments</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>475</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
@@ -3064,7 +2850,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2370</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="6">
@@ -3074,7 +2860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1091</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7">
@@ -3084,17 +2870,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6002</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,616, $5,608, and $5,886</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,839 and $5,755</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2839</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="9">
@@ -3104,7 +2890,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3114,7 +2900,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>703</v>
+        <v>886</v>
       </c>
     </row>
     <row r="11">
@@ -3124,253 +2910,181 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13604</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Line of Credit Facility, Fair Value of Amount Outstanding</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1126</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1530</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Operating Lease, Liability, Current</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>798</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
+          <t>Total current liabilities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3638</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Long-term debt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Operating Lease, Liability, Noncurrent</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4449</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Total long-term liabilities</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>7160</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 9)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 371 and 378 shares</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Common stock, shares outstanding (in shares)</t>
+          <t>Additional Paid in Capital</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>377000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3481</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 377, 374, and 373 shares</t>
+          <t>Accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>13604</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Property and equipment, accumulated depreciation</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>5616</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Common stock, shares issued (in shares)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>377000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Common stock, shares authorized (in shares)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Common stock, par value (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>50000</v>
+        <v>8049</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3400,7 +3114,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jul. 31, 2021</t>
+          <t>May 02, 2020</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3133,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2375</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4">
@@ -3429,7 +3143,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3439,7 +3153,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2281</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="6">
@@ -3449,7 +3163,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7">
@@ -3459,17 +3173,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6194</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,886, $5,839, and $5,871</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2897</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="9">
@@ -3479,7 +3193,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3975</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="10">
@@ -3489,7 +3203,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11">
@@ -3499,7 +3213,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13759</v>
+        <v>12710</v>
       </c>
     </row>
     <row r="12">
@@ -3513,79 +3227,79 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Current maturities of debt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1583</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252</v>
+        <v>971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>789</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
+          <t>Operating Lease, Liability, Current</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3651</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3431</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2220</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4348</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="21">
@@ -3595,39 +3309,39 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total long-term liabilities</t>
+          <t>Operating Lease, Liability, Noncurrent</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7088</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 9)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6962</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Common stock, shares outstanding (in shares)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>376000</v>
+          <t>Commitments and contingencies (see Note 9)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3641,7 +3355,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 373, 371, and 378 shares</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3655,7 +3369,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -3665,7 +3379,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2879</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="29">
@@ -3675,7 +3389,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -3685,7 +3399,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3020</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="31">
@@ -3695,47 +3409,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13759</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Property and equipment, accumulated depreciation</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5603</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Common stock, shares issued (in shares)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Common stock, shares authorized (in shares)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Common stock, par value (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>50000</v>
+        <v>12710</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3765,7 +3439,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 30, 2021</t>
+          <t>Aug. 01, 2020</t>
         </is>
       </c>
     </row>
@@ -3784,17 +3458,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>801</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Short-term investments</t>
+          <t>Available-for-sale Securities, Current</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -3804,7 +3478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2721</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="6">
@@ -3814,7 +3488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1410</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7">
@@ -3824,17 +3498,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5207</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,933, $5,839, and $5,926</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2924</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="9">
@@ -3844,7 +3518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3788</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="10">
@@ -3854,7 +3528,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>861</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11">
@@ -3864,7 +3538,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12780</v>
+        <v>13716</v>
       </c>
     </row>
     <row r="12">
@@ -3882,7 +3556,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="14">
@@ -3892,7 +3566,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1414</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="15">
@@ -3902,7 +3576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>746</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16">
@@ -3912,7 +3586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -3922,7 +3596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3823</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="18">
@@ -3940,27 +3614,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1484</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4163</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Operating Lease, Liability, Noncurrent</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>523</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="22">
@@ -3970,7 +3644,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6170</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="23">
@@ -3988,119 +3662,69 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Common stock, shares outstanding (in shares)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>374000</v>
-      </c>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 374, 371, and 376 shares</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented</t>
+          <t>Additional Paid in Capital</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Additional Paid in Capital</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2681</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
+          <t>Total stockholders' equity</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total stockholders' equity</t>
+          <t>Total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>12780</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Property and equipment, accumulated depreciation</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5486</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Common stock, shares issued (in shares)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>374000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Common stock, shares authorized (in shares)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Common stock, par value (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>50000</v>
+        <v>13716</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +3754,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jul. 29, 2017</t>
+          <t>Apr. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -4149,7 +3773,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1609</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="4">
@@ -4159,7 +3783,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2051</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="5">
@@ -4169,7 +3793,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>598</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6">
@@ -4179,17 +3803,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4258</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $6,002, $5,813, and $5,903</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,763, $5,644, and $5,599</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2643</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="8">
@@ -4199,7 +3823,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>716</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9">
@@ -4209,7 +3833,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7617</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="10">
@@ -4227,7 +3851,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12">
@@ -4237,7 +3861,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1230</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13">
@@ -4247,7 +3871,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1062</v>
+        <v>974</v>
       </c>
     </row>
     <row r="14">
@@ -4257,7 +3881,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -4267,7 +3891,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2399</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="16">
@@ -4281,11 +3905,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total long-term debt, less current portion</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1248</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="18">
@@ -4295,7 +3919,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1025</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="19">
@@ -4305,7 +3929,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2273</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="20">
@@ -4331,7 +3955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 392, 399, and 398 shares</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 398, 397, and 419 shares</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4345,7 +3969,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -4355,7 +3979,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2902</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="25">
@@ -4365,7 +3989,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -4375,7 +3999,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2945</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="27">
@@ -4385,7 +4009,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7617</v>
+        <v>7507</v>
       </c>
     </row>
   </sheetData>
@@ -4394,6 +4018,371 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 31, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Current assets:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Available-for-sale Securities, Current</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Property and equipment, net of accumulated depreciation of $5,891, $5,839, and $5,999</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating Lease, Right-of-Use Asset</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other long-term assets</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14373</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Operating Lease, Liability, Current</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Income taxes payable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total long-term debt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Operating Lease, Liability, Noncurrent</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Commitments and contingencies (see Note 9)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common stock, shares outstanding (in shares)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 371, 371, and 373 shares</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14373</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Property and equipment, accumulated depreciation</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common stock, shares issued (in shares)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common stock, shares authorized (in shares)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Common stock, par value (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4415,7 +4404,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 29, 2022</t>
+          <t>Feb. 01, 2020</t>
         </is>
       </c>
     </row>
@@ -4430,21 +4419,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Cash and Cash Equivalents, at Carrying Value</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>877</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Short-term investments</t>
+          <t>Short-term Investments</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -4454,17 +4443,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3018</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other current assets</t>
+          <t>Other Assets, Current</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1270</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7">
@@ -4474,7 +4463,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5165</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="8">
@@ -4484,7 +4473,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5071</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="9">
@@ -4494,17 +4483,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3037</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Operating lease assets</t>
+          <t>Operating Lease, Right-of-Use Asset</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3675</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="11">
@@ -4514,7 +4503,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>884</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12">
@@ -4524,7 +4513,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12761</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="13">
@@ -4542,27 +4531,27 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1951</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Accrued Liabilities, Current</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1367</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Current portion of operating lease liabilities</t>
+          <t>Operating Lease, Liability, Current</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17">
@@ -4572,7 +4561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -4582,7 +4571,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4077</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="19">
@@ -4600,17 +4589,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1484</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Long-term operating lease liabilities</t>
+          <t>Operating Lease, Liability, Noncurrent</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4033</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="22">
@@ -4620,7 +4609,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>445</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23">
@@ -4630,7 +4619,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5962</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="24">
@@ -4644,7 +4633,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented</t>
+          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 371 and 378 shares</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4658,7 +4647,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4668,7 +4657,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2622</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="28">
@@ -4678,7 +4667,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -4688,7 +4677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2722</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="30">
@@ -4698,7 +4687,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12761</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="31">
@@ -4746,7 +4735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4768,7 +4757,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Apr. 30, 2022</t>
+          <t>May 01, 2021</t>
         </is>
       </c>
     </row>
@@ -4787,17 +4776,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Short-term investments</t>
+          <t>Available-for-sale Securities, Current</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5">
@@ -4807,7 +4796,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3169</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="6">
@@ -4817,7 +4806,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7">
@@ -4827,17 +4816,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5005</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,616, $5,608, and $5,886</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2791</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="9">
@@ -4847,7 +4836,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3587</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="10">
@@ -4857,7 +4846,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>874</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11">
@@ -4867,84 +4856,84 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12257</v>
+        <v>13604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Line of Credit Facility, Fair Value of Amount Outstanding</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1599</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1127</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Operating Lease, Liability, Current</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>717</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Income taxes payable</t>
+          <t>Operating Lease, Liability, Current</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total current liabilities</t>
+          <t>Income taxes payable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3472</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3638</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Long-term Line of Credit</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>350</v>
-      </c>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4953,7 +4942,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1485</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="21">
@@ -4963,7 +4952,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3921</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="22">
@@ -4973,7 +4962,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>575</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23">
@@ -4983,7 +4972,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6331</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="24">
@@ -5005,7 +4994,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>369</v>
+        <v>377000</v>
       </c>
     </row>
     <row r="26">
@@ -5019,7 +5008,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 377, 374, and 373 shares</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5033,7 +5022,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -5043,7 +5032,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2389</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="30">
@@ -5053,7 +5042,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -5063,7 +5052,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2454</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="32">
@@ -5073,7 +5062,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12257</v>
+        <v>13604</v>
       </c>
     </row>
     <row r="33">
@@ -5083,7 +5072,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4967</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="34">
@@ -5093,7 +5082,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369</v>
+        <v>377000</v>
       </c>
     </row>
     <row r="35">
@@ -5103,7 +5092,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2300</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="36">
@@ -5113,7 +5102,1090 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jul. 31, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Current assets:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Available-for-sale Securities, Current</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Property and equipment, net of accumulated depreciation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating Lease, Right-of-Use Asset</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other long-term assets</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13759</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Operating Lease, Liability, Current</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Income taxes payable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total long-term debt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Operating Lease, Liability, Noncurrent</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7088</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Commitments and contingencies (see Note 9)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common stock, shares outstanding (in shares)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Authorized 2,300 shares for all periods presented</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13759</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Property and equipment, accumulated depreciation</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common stock, shares issued (in shares)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common stock, shares authorized (in shares)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Common stock, par value (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 30, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Current assets:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Short-term investments</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Property and equipment, net of accumulated depreciation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating Lease, Right-of-Use Asset</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other long-term assets</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Operating Lease, Liability, Current</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Income taxes payable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total long-term debt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Operating Lease, Liability, Noncurrent</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Commitments and contingencies (see Note 9)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common stock, shares outstanding (in shares)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Authorized 2,300 shares for all periods presented</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Property and equipment, accumulated depreciation</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common stock, shares issued (in shares)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common stock, shares authorized (in shares)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Common stock, par value (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 30, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Current assets:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Short-term investments</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Accumulated Depreciation, Depletion and Amortization, Property, Plant, and Equipment</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Property and equipment, net of accumulated depreciation</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Operating lease assets</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other long-term assets</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13769</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Current portion of operating lease liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income taxes payable</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Long-term debt</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Long-term operating lease liabilities</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13769</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common stock, par value (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common stock, shares outstanding (in shares)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common stock, shares issued (in shares)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common stock, shares authorized (in shares)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2300000</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +6215,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 28, 2017</t>
+          <t>Jul. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -5162,7 +6234,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1353</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="4">
@@ -5172,7 +6244,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2476</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="5">
@@ -5182,7 +6254,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6">
@@ -5192,17 +6264,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4483</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $6,041, $5,813, and $5,900</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,903, $5,644, and $5,671</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2686</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="8">
@@ -5212,7 +6284,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>726</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9">
@@ -5222,7 +6294,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7895</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="10">
@@ -5240,7 +6312,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12">
@@ -5250,7 +6322,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1330</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="13">
@@ -5260,7 +6332,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +6342,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -5280,7 +6352,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2596</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="16">
@@ -5294,11 +6366,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total long-term debt, less current portion</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1248</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="18">
@@ -5308,7 +6380,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1027</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19">
@@ -5318,13 +6390,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2275</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Commitments and contingencies (see Note 11)</t>
+          <t>Commitments and contingencies (see Note 12)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5344,11 +6416,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 389, 399, and 399 shares</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 398, 397, and 410 shares</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -5358,7 +6430,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -5368,7 +6440,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2965</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="25">
@@ -5378,7 +6450,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -5388,7 +6460,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3024</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="27">
@@ -5398,7 +6470,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7895</v>
+        <v>7737</v>
       </c>
     </row>
   </sheetData>
@@ -5407,6 +6479,291 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 29, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Current assets:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Property and equipment, net of accumulated depreciation of $5,900, $5,644, and $5,673</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other long-term assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Income taxes payable</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total long-term debt, less current portion</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Commitments and contingencies (see Note 12)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 399, 397, and 404 shares</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5428,7 +6785,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 03, 2018</t>
+          <t>Jan. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -5447,7 +6804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1783</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="4">
@@ -5457,7 +6814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1997</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5">
@@ -5467,7 +6824,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
@@ -5477,7 +6834,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4568</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="7">
@@ -5487,7 +6844,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2805</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="8">
@@ -5497,7 +6854,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>616</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9">
@@ -5507,7 +6864,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7989</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="10">
@@ -5525,7 +6882,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12">
@@ -5535,7 +6892,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1181</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="13">
@@ -5545,7 +6902,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1270</v>
+        <v>979</v>
       </c>
     </row>
     <row r="14">
@@ -5555,7 +6912,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -5565,7 +6922,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2461</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="16">
@@ -5583,7 +6940,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1249</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="18">
@@ -5593,7 +6950,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1135</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19">
@@ -5603,7 +6960,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2384</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="20">
@@ -5617,11 +6974,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 389 and 399 shares</t>
+          <t>Common stock $0.05 par value, Authorized 2,300 shares for all periods presented; Issued and Outstanding 399 and 397 shares</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -5631,7 +6988,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5641,7 +6998,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3081</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="24">
@@ -5651,7 +7008,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -5661,7 +7018,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3144</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="26">
@@ -5671,302 +7028,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7989</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>May 05, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current assets:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Available-for-sale Securities, Current</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other current assets</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total current assets</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4187</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Property and equipment, net of accumulated depreciation of $6,041, $5,813, and $5,900</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other long-term assets</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7585</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Current maturities of debt</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Income taxes payable</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Total long-term debt</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Total long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Commitments and contingencies (see Note 11)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 389, 399, and 399 shares</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Additional Paid in Capital</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Retained earnings</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>7585</v>
+        <v>7473</v>
       </c>
     </row>
   </sheetData>
@@ -5996,7 +7058,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Aug. 04, 2018</t>
+          <t>Apr. 29, 2017</t>
         </is>
       </c>
     </row>
@@ -6015,86 +7077,86 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1322</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Available-for-sale Securities, Current</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Other current assets</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2202</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other current assets</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>780</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Property and equipment, net of accumulated depreciation of $5,877, $5,813, and $5,673</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4590</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $6,063, $5,962, and $6,002</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2832</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8010</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6103,7 +7165,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1297</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="13">
@@ -6113,7 +7175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1026</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14">
@@ -6123,7 +7185,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -6133,7 +7195,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2341</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="16">
@@ -6151,7 +7213,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18">
@@ -6161,7 +7223,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1080</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19">
@@ -6171,7 +7233,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2329</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="20">
@@ -6197,11 +7259,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 385, 389, and 392 shares</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 396, 399, and 398 shares</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -6221,7 +7283,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3268</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="25">
@@ -6231,7 +7293,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +7303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3340</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="27">
@@ -6251,7 +7313,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8010</v>
+        <v>7411</v>
       </c>
     </row>
   </sheetData>
@@ -6281,7 +7343,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nov. 03, 2018</t>
+          <t>Jul. 29, 2017</t>
         </is>
       </c>
     </row>
@@ -6300,86 +7362,86 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>958</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Available-for-sale Securities, Current</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Other current assets</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2668</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other current assets</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Property and equipment, net of accumulated depreciation of $6,002, $5,813, and $5,903</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4714</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $6,063, $5,962, and $6,002</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2887</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>572</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8173</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6388,7 +7450,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1299</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="13">
@@ -6398,7 +7460,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14">
@@ -6408,7 +7470,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -6418,7 +7480,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2393</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="16">
@@ -6436,7 +7498,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18">
@@ -6446,7 +7508,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1091</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19">
@@ -6456,7 +7518,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2340</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="20">
@@ -6482,11 +7544,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 385, 389, and 392 shares</t>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 392, 399, and 398 shares</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -6506,7 +7568,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3368</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="25">
@@ -6516,7 +7578,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -6526,7 +7588,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3440</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="27">
@@ -6536,7 +7598,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8173</v>
+        <v>7617</v>
       </c>
     </row>
   </sheetData>
@@ -6545,6 +7607,291 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 28, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Current assets:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Property and equipment, net of accumulated depreciation of $6,041, $5,813, and $5,900</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other long-term assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7895</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Income taxes payable</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Long-term liabilities:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total long-term debt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Commitments and contingencies (see Note 11)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Stockholders' equity:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 389, 399, and 399 shares</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Additional Paid in Capital</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Amounts reclassified from accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6566,7 +7913,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 02, 2019</t>
+          <t>Jan. 28, 2017</t>
         </is>
       </c>
     </row>
@@ -6585,86 +7932,86 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1081</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Short-term Investments</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Other current assets</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2131</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other current assets</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>751</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Property and equipment, net</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4251</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,755 and $5,962</t>
+          <t>Other long-term assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2912</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Other long-term assets</t>
+          <t>Total assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>886</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8049</v>
-      </c>
+          <t>Current liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6673,7 +8020,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1126</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="13">
@@ -6683,7 +8030,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1024</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="14">
@@ -6693,7 +8040,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -6703,7 +8050,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2174</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="16">
@@ -6721,7 +8068,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18">
@@ -6731,7 +8078,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1073</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19">
@@ -6741,7 +8088,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2322</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="20">
@@ -6759,7 +8106,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -6769,7 +8116,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -6779,7 +8126,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3481</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="24">
@@ -6789,7 +8136,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -6799,7 +8146,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3553</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="26">
@@ -6809,322 +8156,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8049</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>May 04, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Current assets:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Available-for-sale Securities, Current</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other current assets</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total current assets</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Property and equipment, net of accumulated depreciation of $5,871, $5,755, and $6,025</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Operating Lease, Right-of-Use Asset</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5732</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other long-term assets</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13620</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Current liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Operating Lease, Liability, Current</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Income taxes payable</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Long-term liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Total long-term debt</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Operating Lease, Liability, Noncurrent</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5597</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Total long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>7218</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Commitments and contingencies (see Note 11)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Stockholders' equity:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Authorized 2,300 shares for all periods presented; Issued and Outstanding 378, 378, and 387 shares</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Additional Paid in Capital</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Retained earnings</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Amounts reclassified from accumulated other comprehensive income</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Total stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>13620</v>
+        <v>7610</v>
       </c>
     </row>
   </sheetData>
